--- a/LovoRise App Report_&_cases/LovoRise App Bug Report.xlsx
+++ b/LovoRise App Report_&_cases/LovoRise App Bug Report.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>Pic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partho Protim </t>
   </si>
   <si>
     <t>Filter feature sub-feature "Age Range"-  Every time close the app it gets reset</t>
@@ -295,48 +295,54 @@
   <si>
     <t>But it’s showing the wrong religion logo besides religion supposed user has chosen Hindu it’s showing the “star and half moon” logo not showing hindu religion logo.</t>
   </si>
+  <si>
+    <t>Safar Khan Shuvo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
@@ -346,7 +352,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -362,7 +368,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -376,8 +388,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -387,6 +401,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -395,79 +410,84 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -657,27 +677,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.63"/>
-    <col customWidth="1" min="2" max="2" width="33.63"/>
-    <col customWidth="1" min="3" max="3" width="22.25"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="29.13"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -732,28 +757,28 @@
         <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45429</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11">
-        <v>45429.0</v>
-      </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
@@ -762,28 +787,28 @@
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I3" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>15</v>
@@ -792,28 +817,28 @@
         <v>16</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I4" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>15</v>
@@ -822,116 +847,116 @@
         <v>16</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I5" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I6" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45429</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11">
-        <v>45429.0</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I8" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
@@ -940,58 +965,58 @@
         <v>16</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I9" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I10" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>15</v>
@@ -1000,28 +1025,28 @@
         <v>16</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I11" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
@@ -1030,56 +1055,56 @@
         <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I12" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I13" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>15</v>
@@ -1088,28 +1113,28 @@
         <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I14" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>15</v>
@@ -1118,28 +1143,28 @@
         <v>16</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I15" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>15</v>
@@ -1148,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I16" s="11">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="J16" s="9"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F16">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G7"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId8" ref="G10"/>
-    <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId10" ref="G12"/>
-    <hyperlink r:id="rId11" ref="G14"/>
-    <hyperlink r:id="rId12" ref="G15"/>
-    <hyperlink r:id="rId13" ref="G16"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="G15" r:id="rId12"/>
+    <hyperlink ref="G16" r:id="rId13"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>